--- a/doc/ZXF/201708044202zxf.xlsx
+++ b/doc/ZXF/201708044202zxf.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCB3E34-E1E2-4182-AAD5-8B34DCC02182}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22062A53-263C-42F6-BBCA-8FA80D683EBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期时间</t>
   </si>
@@ -118,6 +118,18 @@
   <si>
     <t>安装数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/31 20:30--23:00</t>
+  </si>
+  <si>
+    <t>修改自己的实体</t>
+  </si>
+  <si>
+    <t>2019/6/1 14:00--18:00</t>
+  </si>
+  <si>
+    <t>修改完成并提交</t>
   </si>
 </sst>
 </file>
@@ -160,13 +172,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -564,6 +579,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
